--- a/P2/GenerationsDiagram3.xlsx
+++ b/P2/GenerationsDiagram3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\14_STUDIUM\GA\P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Documents\Studium\hda_GeneticAlgorithms\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BAAA81D-0EE1-497F-897C-6FCB49C46F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1EF6E2-4542-4D94-B61F-55D73E22E44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generations" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2128,7 +2128,2255 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8928258967629044E-2"/>
+          <c:y val="0.30076443569553807"/>
+          <c:w val="0.88882174103237099"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Generations!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Gen Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Generations!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generations!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.50975000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87366666666666604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86083333333333301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.11499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1274999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6074999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5674999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8675000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8424999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8424999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5724999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7075</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6175000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D76D-4704-804A-183EC873714B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Generations!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fit of Gen best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Generations!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generations!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D76D-4704-804A-183EC873714B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Generations!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fit of Total Best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Generations!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generations!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D76D-4704-804A-183EC873714B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1181803839"/>
+        <c:axId val="1181798559"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1181803839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1181798559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1181798559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1181803839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2684,6 +4932,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2717,6 +5481,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>318541</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>52466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>599606</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>24984</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B26C33-08A8-539B-EE12-FFAAC2E5E491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3021,16 +5821,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection sqref="A1:C101"/>
+    <sheetView tabSelected="1" topLeftCell="E63" zoomScale="122" workbookViewId="0">
+      <selection sqref="A1:D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3050,7 +5854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3070,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3090,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3110,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3130,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3150,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3170,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3190,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3210,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3230,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3250,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3270,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3290,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3310,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3330,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3350,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3370,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3390,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3410,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3430,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3450,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3470,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3490,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3510,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3530,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3550,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3570,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3590,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3610,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3630,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3650,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3670,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3690,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3710,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3730,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3750,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3770,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3790,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3810,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3830,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3850,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3870,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3890,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3910,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3930,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3950,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3970,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3990,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4010,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4030,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4050,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4070,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4090,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4110,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4130,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4150,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4170,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4190,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4210,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4230,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4250,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4270,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4290,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4310,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4330,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4350,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4370,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4390,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4410,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4430,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4450,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4470,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4490,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4510,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4530,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4550,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4570,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4590,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4610,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4630,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4650,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4670,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4690,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4710,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4730,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4750,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4770,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4790,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4810,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4830,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4850,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4870,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4890,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4910,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4930,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4950,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4970,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4990,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5010,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5030,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
